--- a/Load Cell/Asinchroninisvariklis_laboratorinis.xlsx
+++ b/Load Cell/Asinchroninisvariklis_laboratorinis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5D549B-52A9-4539-BB75-E41111928798}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48298CC1-F9E3-46B6-A33C-BFF0B25EB3AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,6 +316,69 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Lapas1!$C$3:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Lapas1!$E$3:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -373,69 +436,6 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Lapas1!$C$3:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1490</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1450</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1330</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1160</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1090</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -500,7 +500,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="lt-LT"/>
-                  <a:t>M, Nm</a:t>
+                  <a:t>n, aps/min</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -617,8 +617,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="lt-LT"/>
-                  <a:t>n, aps/min</a:t>
+                  <a:t>M,</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="lt-LT" baseline="0"/>
+                  <a:t> Nm</a:t>
+                </a:r>
+                <a:endParaRPr lang="lt-LT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5003,8 +5008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
